--- a/cam/Uno_v1.0_2020-12-05-PaP.xlsx
+++ b/cam/Uno_v1.0_2020-12-05-PaP.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AG\Documents\EAGLE\projects\Uno\cam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40E4CD13-45B6-4785-92C2-8E86F77A55C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EB850B-D3E6-4289-B2A1-F973F8E3ED42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18140" yWindow="780" windowWidth="22180" windowHeight="20940" activeTab="1" xr2:uid="{4F9F1801-59FC-4033-86E9-426801B8EC3F}"/>
+    <workbookView xWindow="2280" yWindow="60" windowWidth="22180" windowHeight="20940" activeTab="1" xr2:uid="{4F9F1801-59FC-4033-86E9-426801B8EC3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">Sheet2!$A$1:$E$51</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">Sheet2!$A$1:$E$50</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="55">
   <si>
     <t>C1</t>
   </si>
@@ -96,9 +96,6 @@
     <t>C19</t>
   </si>
   <si>
-    <t>CN2</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
@@ -201,10 +198,10 @@
     <t>Layer</t>
   </si>
   <si>
-    <t>Top</t>
-  </si>
-  <si>
     <t>Rotation</t>
+  </si>
+  <si>
+    <t>top</t>
   </si>
 </sst>
 </file>
@@ -289,8 +286,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4634CAF2-EF5A-4C71-9F27-001EA52CAA0D}" name="Uno_v1_0" displayName="Uno_v1_0" ref="A1:E51" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E51" xr:uid="{6425748D-04D3-4E58-83F4-71B6797EBDFA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4634CAF2-EF5A-4C71-9F27-001EA52CAA0D}" name="Uno_v1_0" displayName="Uno_v1_0" ref="A1:E50" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E50" xr:uid="{6425748D-04D3-4E58-83F4-71B6797EBDFA}"/>
   <tableColumns count="5">
     <tableColumn id="7" xr3:uid="{7257AE64-34D0-4FF2-8F5A-9011EC1D168A}" uniqueName="7" name="Designator" queryTableFieldId="1" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{31693521-4B20-4EAE-8FF8-882363881A9B}" uniqueName="2" name="Mid X" queryTableFieldId="2"/>
@@ -611,34 +608,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5184F0-88BF-417C-84FD-886767401441}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:XFD52"/>
+      <selection activeCell="D2" sqref="D2:D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.54296875" customWidth="1"/>
+    <col min="2" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.54296875" customWidth="1"/>
     <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -969,10 +967,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>2.73</v>
+        <v>17.53</v>
       </c>
       <c r="C21" s="1">
-        <v>38.1</v>
+        <v>6.1</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>54</v>
@@ -986,16 +984,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>17.53</v>
+        <v>22.35</v>
       </c>
       <c r="C22" s="1">
-        <v>6.1</v>
+        <v>5.84</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E22" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -1003,10 +1001,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>22.35</v>
+        <v>9.14</v>
       </c>
       <c r="C23" s="1">
-        <v>5.84</v>
+        <v>43.82</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>54</v>
@@ -1020,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>9.14</v>
+        <v>15.37</v>
       </c>
       <c r="C24" s="1">
-        <v>43.82</v>
+        <v>19.05</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>54</v>
@@ -1037,7 +1035,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>15.37</v>
+        <v>24.26</v>
       </c>
       <c r="C25" s="1">
         <v>19.05</v>
@@ -1054,16 +1052,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>24.26</v>
+        <v>9.91</v>
       </c>
       <c r="C26" s="1">
-        <v>19.05</v>
+        <v>26.16</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -1071,16 +1069,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>9.91</v>
+        <v>22.35</v>
       </c>
       <c r="C27" s="1">
-        <v>26.16</v>
+        <v>9.14</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E27" s="1">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -1088,16 +1086,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>22.35</v>
+        <v>13.59</v>
       </c>
       <c r="C28" s="1">
-        <v>9.14</v>
+        <v>43.94</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E28" s="1">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -1105,16 +1103,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>13.59</v>
+        <v>2.54</v>
       </c>
       <c r="C29" s="1">
-        <v>43.94</v>
+        <v>29.21</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E29" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -1125,7 +1123,7 @@
         <v>2.54</v>
       </c>
       <c r="C30" s="1">
-        <v>29.21</v>
+        <v>26.67</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>54</v>
@@ -1142,7 +1140,7 @@
         <v>2.54</v>
       </c>
       <c r="C31" s="1">
-        <v>26.67</v>
+        <v>24.13</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>54</v>
@@ -1159,7 +1157,7 @@
         <v>2.54</v>
       </c>
       <c r="C32" s="1">
-        <v>24.13</v>
+        <v>21.59</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>54</v>
@@ -1172,17 +1170,17 @@
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="1">
-        <v>2.54</v>
-      </c>
-      <c r="C33" s="1">
-        <v>21.59</v>
+      <c r="B33">
+        <v>24</v>
+      </c>
+      <c r="C33">
+        <v>39.880000000000003</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="1">
-        <v>0</v>
+      <c r="E33">
+        <v>270</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -1190,16 +1188,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>24</v>
+        <v>44.96</v>
       </c>
       <c r="C34">
-        <v>39.880000000000003</v>
+        <v>38.99</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E34">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
@@ -1207,7 +1205,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>44.96</v>
+        <v>10.16</v>
       </c>
       <c r="C35">
         <v>38.99</v>
@@ -1227,7 +1225,7 @@
         <v>10.16</v>
       </c>
       <c r="C36">
-        <v>38.99</v>
+        <v>37.85</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>54</v>
@@ -1241,16 +1239,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>10.16</v>
+        <v>20.7</v>
       </c>
       <c r="C37">
-        <v>37.85</v>
+        <v>40.26</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -1258,16 +1256,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>20.7</v>
+        <v>9.91</v>
       </c>
       <c r="C38">
-        <v>40.26</v>
+        <v>31.75</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E38">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
@@ -1278,13 +1276,13 @@
         <v>9.91</v>
       </c>
       <c r="C39">
-        <v>31.75</v>
+        <v>30.61</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E39">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -1292,10 +1290,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>9.91</v>
+        <v>45.21</v>
       </c>
       <c r="C40">
-        <v>30.61</v>
+        <v>35.43</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>54</v>
@@ -1309,16 +1307,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>45.21</v>
+        <v>2.54</v>
       </c>
       <c r="C41">
-        <v>35.43</v>
+        <v>27.94</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
@@ -1329,7 +1327,7 @@
         <v>2.54</v>
       </c>
       <c r="C42">
-        <v>27.94</v>
+        <v>25.4</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>54</v>
@@ -1346,7 +1344,7 @@
         <v>2.54</v>
       </c>
       <c r="C43">
-        <v>25.4</v>
+        <v>22.86</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>54</v>
@@ -1363,7 +1361,7 @@
         <v>2.54</v>
       </c>
       <c r="C44">
-        <v>22.86</v>
+        <v>20.32</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>54</v>
@@ -1377,16 +1375,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>2.54</v>
+        <v>22.86</v>
       </c>
       <c r="C45">
-        <v>20.32</v>
+        <v>35.31</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E45">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
@@ -1394,16 +1392,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>22.86</v>
+        <v>57.02</v>
       </c>
       <c r="C46">
-        <v>35.31</v>
+        <v>29.59</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E46">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
@@ -1411,10 +1409,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>57.02</v>
+        <v>16.38</v>
       </c>
       <c r="C47">
-        <v>29.59</v>
+        <v>25.53</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>54</v>
@@ -1428,16 +1426,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>16.38</v>
+        <v>9.7799999999999994</v>
       </c>
       <c r="C48">
-        <v>25.53</v>
+        <v>19.809999999999999</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
@@ -1445,16 +1443,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>9.7799999999999994</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="C49">
-        <v>19.809999999999999</v>
+        <v>36.450000000000003</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E49">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
@@ -1462,32 +1460,15 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>16.510000000000002</v>
+        <v>48.26</v>
       </c>
       <c r="C50">
-        <v>36.450000000000003</v>
+        <v>29.21</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E50">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>48.26</v>
-      </c>
-      <c r="C51">
-        <v>29.21</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E51">
         <v>270</v>
       </c>
     </row>
